--- a/sample.xlsx
+++ b/sample.xlsx
@@ -14,13 +14,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Diskutilization</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>DiskUtilization</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DiskAvailable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419643704</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419646066</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419647827</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419649850</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419651250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419653318</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419654949</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419656763</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419658430</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419660030</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419662010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419663778</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419665168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419666817</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419668471</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419670350</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499419671811</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1499422648661</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,6 +434,60 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:19"/>
     <row r="3" spans="1:19"/>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -6,12 +6,13 @@
   </bookViews>
   <sheets>
     <sheet name="Disk" sheetId="1" r:id="rId1"/>
+    <sheet name="Memory" sheetId="2" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DiskUtilization</t>
   </si>
@@ -35,14 +36,18 @@
   </si>
   <si>
     <t>/dev/sr0</t>
+  </si>
+  <si>
+    <t>MemoryUtilization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="[$-409]d hh:mm:ss" numFmtId="164"/>
+  <numFmts count="2">
+    <numFmt formatCode="0.00%" numFmtId="164"/>
+    <numFmt formatCode="[$-409]d hh:mm:ss" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -88,12 +93,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1"/>
     <xf applyBorder="1" borderId="1"/>
-    <xf applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyNumberFormat="1" numFmtId="165"/>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -105,40 +111,40 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>42923.60576306713</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="5">
         <v>42923.60581381944</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="5">
         <v>42923.60586079861</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="5">
         <v>42923.60590957176</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="5">
         <v>42923.60593440972</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="5">
         <v>42923.605951516205</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="5">
         <v>42923.60596789352</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="5">
         <v>42923.605985104165</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="5">
         <v>42923.60600511574</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="5">
         <v>42923.60604724537</v>
       </c>
     </row>
@@ -356,34 +362,34 @@
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>42923.60576306713</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>42923.60581381944</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>42923.60586079861</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>42923.60590957176</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>42923.60593440972</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="5">
         <v>42923.605951516205</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="5">
         <v>42923.60596789352</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="5">
         <v>42923.605985104165</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <v>42923.60600511574</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="5">
         <v>42923.60604724537</v>
       </c>
     </row>
@@ -595,6 +601,87 @@
       </c>
       <c r="K15" s="2" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5">
+        <v>42923.60576306713</v>
+      </c>
+      <c r="C1" s="5">
+        <v>42923.60581381944</v>
+      </c>
+      <c r="D1" s="5">
+        <v>42923.60586079861</v>
+      </c>
+      <c r="E1" s="5">
+        <v>42923.60590957176</v>
+      </c>
+      <c r="F1" s="5">
+        <v>42923.60593440972</v>
+      </c>
+      <c r="G1" s="5">
+        <v>42923.605951516205</v>
+      </c>
+      <c r="H1" s="5">
+        <v>42923.60596789352</v>
+      </c>
+      <c r="I1" s="5">
+        <v>42923.605985104165</v>
+      </c>
+      <c r="J1" s="5">
+        <v>42923.60600511574</v>
+      </c>
+      <c r="K1" s="5">
+        <v>42923.60604724537</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="n">
+        <v>0.7991036677767184</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.799329362940854</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.7997853592928832</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0.7996817237583311</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>0.8003196580487962</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>0.8003449911794644</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.7998982068749511</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>0.8003611122626171</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.7996437240623288</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.7997473595968808</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -7,12 +7,13 @@
   <sheets>
     <sheet name="Disk" sheetId="1" r:id="rId1"/>
     <sheet name="Memory" sheetId="2" r:id="rId2"/>
+    <sheet name="Cpu" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>DiskUtilization</t>
   </si>
@@ -39,6 +40,15 @@
   </si>
   <si>
     <t>MemoryUtilization</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>CPUUtilization</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -46,8 +56,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt formatCode="0.00%" numFmtId="164"/>
-    <numFmt formatCode="[$-409]d hh:mm:ss" numFmtId="165"/>
+    <numFmt formatCode="[$-409]d hh:mm:ss" numFmtId="164"/>
+    <numFmt formatCode="0.00%" numFmtId="165"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -97,9 +107,9 @@
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1"/>
     <xf applyBorder="1" borderId="1"/>
-    <xf applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyNumberFormat="1" numFmtId="165"/>
-    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165"/>
+    <xf applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="1" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyBorder="1" borderId="1" applyNumberFormat="1" numFmtId="165"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -107,7 +117,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -117,35 +127,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5">
-        <v>42923.60576306713</v>
-      </c>
-      <c r="C1" s="5">
-        <v>42923.60581381944</v>
-      </c>
-      <c r="D1" s="5">
-        <v>42923.60586079861</v>
-      </c>
-      <c r="E1" s="5">
-        <v>42923.60590957176</v>
-      </c>
-      <c r="F1" s="5">
-        <v>42923.60593440972</v>
-      </c>
-      <c r="G1" s="5">
-        <v>42923.605951516205</v>
-      </c>
-      <c r="H1" s="5">
-        <v>42923.60596789352</v>
-      </c>
-      <c r="I1" s="5">
-        <v>42923.605985104165</v>
-      </c>
-      <c r="J1" s="5">
-        <v>42923.60600511574</v>
-      </c>
-      <c r="K1" s="5">
-        <v>42923.60604724537</v>
+      <c r="B1" s="4">
+        <v>42923.73510010417</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42923.73511646991</v>
+      </c>
+      <c r="D1" s="4">
+        <v>42923.73513475694</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42923.735159421296</v>
+      </c>
+      <c r="F1" s="4">
+        <v>42923.73517662037</v>
+      </c>
+      <c r="G1" s="4">
+        <v>42923.73521302083</v>
+      </c>
+      <c r="H1" s="4">
+        <v>42923.7352443287</v>
+      </c>
+      <c r="I1" s="4">
+        <v>42923.735375717595</v>
       </c>
     </row>
     <row r="2" spans="2:2">
@@ -176,46 +180,34 @@
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="3:3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>148</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="4:4">
@@ -223,34 +215,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>9971376</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>9971376</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>9971376</v>
+        <v>10295536</v>
       </c>
     </row>
     <row r="5" spans="5:5">
@@ -258,34 +244,28 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>3593208</v>
+        <v>4134820</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3593208</v>
+        <v>4134820</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3593208</v>
+        <v>4134824</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3593208</v>
+        <v>4134824</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3593224</v>
+        <v>4134836</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3593224</v>
+        <v>4134836</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>3593224</v>
+        <v>4134836</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>3593228</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>3593228</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>3593228</v>
+        <v>4134836</v>
       </c>
     </row>
     <row r="6" spans="6:6">
@@ -316,12 +296,6 @@
       <c r="I6" s="2" t="n">
         <v>29434</v>
       </c>
-      <c r="J6" s="2" t="n">
-        <v>29434</v>
-      </c>
-      <c r="K6" s="2" t="n">
-        <v>29434</v>
-      </c>
     </row>
     <row r="7" spans="7:7">
       <c r="A7" s="1" t="s">
@@ -351,46 +325,34 @@
       <c r="I7" s="2" t="n">
         <v>269528</v>
       </c>
-      <c r="J7" s="2" t="n">
-        <v>269528</v>
-      </c>
-      <c r="K7" s="2" t="n">
-        <v>269528</v>
-      </c>
     </row>
     <row r="9" spans="9:9">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="5">
-        <v>42923.60576306713</v>
-      </c>
-      <c r="C9" s="5">
-        <v>42923.60581381944</v>
-      </c>
-      <c r="D9" s="5">
-        <v>42923.60586079861</v>
-      </c>
-      <c r="E9" s="5">
-        <v>42923.60590957176</v>
-      </c>
-      <c r="F9" s="5">
-        <v>42923.60593440972</v>
-      </c>
-      <c r="G9" s="5">
-        <v>42923.605951516205</v>
-      </c>
-      <c r="H9" s="5">
-        <v>42923.60596789352</v>
-      </c>
-      <c r="I9" s="5">
-        <v>42923.605985104165</v>
-      </c>
-      <c r="J9" s="5">
-        <v>42923.60600511574</v>
-      </c>
-      <c r="K9" s="5">
-        <v>42923.60604724537</v>
+      <c r="B9" s="4">
+        <v>42923.73510010417</v>
+      </c>
+      <c r="C9" s="4">
+        <v>42923.73511646991</v>
+      </c>
+      <c r="D9" s="4">
+        <v>42923.73513475694</v>
+      </c>
+      <c r="E9" s="4">
+        <v>42923.735159421296</v>
+      </c>
+      <c r="F9" s="4">
+        <v>42923.73517662037</v>
+      </c>
+      <c r="G9" s="4">
+        <v>42923.73521302083</v>
+      </c>
+      <c r="H9" s="4">
+        <v>42923.7352443287</v>
+      </c>
+      <c r="I9" s="4">
+        <v>42923.735375717595</v>
       </c>
     </row>
     <row r="10" spans="10:10">
@@ -421,46 +383,34 @@
       <c r="I10" s="2" t="n">
         <v>1714032</v>
       </c>
-      <c r="J10" s="2" t="n">
-        <v>1714032</v>
-      </c>
-      <c r="K10" s="2" t="n">
-        <v>1714032</v>
-      </c>
     </row>
     <row r="11" spans="11:11">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>347220</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>347220</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>347220</v>
+        <v>347216</v>
       </c>
     </row>
     <row r="12" spans="12:12">
@@ -468,34 +418,28 @@
         <v>4</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>35368868</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>35368868</v>
-      </c>
-      <c r="K12" s="2" t="n">
-        <v>35368868</v>
+        <v>35044708</v>
       </c>
     </row>
     <row r="13" spans="13:13">
@@ -503,34 +447,28 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>87104584</v>
+        <v>86562972</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>87104584</v>
+        <v>86562972</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>87104584</v>
+        <v>86562968</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>87104584</v>
+        <v>86562968</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>87104568</v>
+        <v>86562956</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>87104568</v>
+        <v>86562956</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>87104568</v>
+        <v>86562956</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>87104564</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>87104564</v>
-      </c>
-      <c r="K13" s="2" t="n">
-        <v>87104564</v>
+        <v>86562956</v>
       </c>
     </row>
     <row r="14" spans="14:14">
@@ -561,12 +499,6 @@
       <c r="I14" s="2" t="n">
         <v>68870</v>
       </c>
-      <c r="J14" s="2" t="n">
-        <v>68870</v>
-      </c>
-      <c r="K14" s="2" t="n">
-        <v>68870</v>
-      </c>
     </row>
     <row r="15" spans="15:15">
       <c r="A15" s="1" t="s">
@@ -594,12 +526,6 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -611,7 +537,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -621,67 +547,130 @@
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5">
-        <v>42923.60576306713</v>
-      </c>
-      <c r="C1" s="5">
-        <v>42923.60581381944</v>
-      </c>
-      <c r="D1" s="5">
-        <v>42923.60586079861</v>
-      </c>
-      <c r="E1" s="5">
-        <v>42923.60590957176</v>
-      </c>
-      <c r="F1" s="5">
-        <v>42923.60593440972</v>
-      </c>
-      <c r="G1" s="5">
-        <v>42923.605951516205</v>
-      </c>
-      <c r="H1" s="5">
-        <v>42923.60596789352</v>
-      </c>
-      <c r="I1" s="5">
-        <v>42923.605985104165</v>
-      </c>
-      <c r="J1" s="5">
-        <v>42923.60600511574</v>
-      </c>
-      <c r="K1" s="5">
-        <v>42923.60604724537</v>
+      <c r="B1" s="4">
+        <v>42923.73510010417</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42923.73511646991</v>
+      </c>
+      <c r="D1" s="4">
+        <v>42923.73513475694</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42923.735159421296</v>
+      </c>
+      <c r="F1" s="4">
+        <v>42923.73517662037</v>
+      </c>
+      <c r="G1" s="4">
+        <v>42923.73521302083</v>
+      </c>
+      <c r="H1" s="4">
+        <v>42923.7352443287</v>
+      </c>
+      <c r="I1" s="4">
+        <v>42923.735375717595</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="n">
-        <v>0.7991036677767184</v>
-      </c>
-      <c r="C2" s="3" t="n">
-        <v>0.799329362940854</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.7997853592928832</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.7996817237583311</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>0.8003196580487962</v>
-      </c>
-      <c r="G2" s="3" t="n">
-        <v>0.8003449911794644</v>
-      </c>
-      <c r="H2" s="3" t="n">
-        <v>0.7998982068749511</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.8003611122626171</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>0.7996437240623288</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0.7997473595968808</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="n">
+        <v>0.8797724163661236</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.8802859880151261</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.87967223534939</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.8795317516247749</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.8799992630361987</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.8797678103423657</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0.8799105970788598</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0.8797862344373972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42923.73510010417</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42923.73511646991</v>
+      </c>
+      <c r="D1" s="4">
+        <v>42923.73513475694</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42923.735159421296</v>
+      </c>
+      <c r="F1" s="4">
+        <v>42923.73517662037</v>
+      </c>
+      <c r="G1" s="4">
+        <v>42923.73521302083</v>
+      </c>
+      <c r="H1" s="4">
+        <v>42923.7352443287</v>
+      </c>
+      <c r="I1" s="4">
+        <v>42923.735375717595</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>0.18538324420677363</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>0.1674641148325359</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.13120567375886524</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0.1899159663865546</v>
+      </c>
+      <c r="G2" s="5" t="n">
+        <v>0.09287429943955164</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <v>0.07543859649122807</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -8,12 +8,13 @@
     <sheet name="Disk" sheetId="1" r:id="rId1"/>
     <sheet name="Memory" sheetId="2" r:id="rId2"/>
     <sheet name="Cpu" sheetId="3" r:id="rId3"/>
+    <sheet name="Network" sheetId="4" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DiskUtilization</t>
   </si>
@@ -46,6 +47,21 @@
   </si>
   <si>
     <t>CPUUtilization</t>
+  </si>
+  <si>
+    <t>BytesIn</t>
+  </si>
+  <si>
+    <t>BytesOut</t>
+  </si>
+  <si>
+    <t>enp5s0</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>wlp4s0</t>
   </si>
   <si>
     <t>NA</t>
@@ -117,7 +133,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -151,6 +167,24 @@
       <c r="I1" s="4">
         <v>42923.735375717595</v>
       </c>
+      <c r="J1" s="4">
+        <v>42923.764533761576</v>
+      </c>
+      <c r="K1" s="4">
+        <v>42923.76460434028</v>
+      </c>
+      <c r="L1" s="4">
+        <v>42923.76464243056</v>
+      </c>
+      <c r="M1" s="4">
+        <v>42923.7646625</v>
+      </c>
+      <c r="N1" s="4">
+        <v>42923.76468359954</v>
+      </c>
+      <c r="O1" s="4">
+        <v>42923.76477804398</v>
+      </c>
     </row>
     <row r="2" spans="2:2">
       <c r="A2" s="1" t="s">
@@ -180,6 +214,24 @@
       <c r="I2" s="2" t="n">
         <v>0</v>
       </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="3:3">
       <c r="A3" s="1" t="s">
@@ -209,6 +261,24 @@
       <c r="I3" s="2" t="n">
         <v>152</v>
       </c>
+      <c r="J3" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>156</v>
+      </c>
     </row>
     <row r="4" spans="4:4">
       <c r="A4" s="1" t="s">
@@ -238,6 +308,24 @@
       <c r="I4" s="2" t="n">
         <v>10295536</v>
       </c>
+      <c r="J4" s="2" t="n">
+        <v>10277364</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>10277364</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>10277364</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>10277364</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>10277364</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>10277364</v>
+      </c>
     </row>
     <row r="5" spans="5:5">
       <c r="A5" s="1" t="s">
@@ -267,6 +355,24 @@
       <c r="I5" s="2" t="n">
         <v>4134836</v>
       </c>
+      <c r="J5" s="2" t="n">
+        <v>4146448</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>4146452</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>4146452</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>4146452</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>4146452</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>4146460</v>
+      </c>
     </row>
     <row r="6" spans="6:6">
       <c r="A6" s="1" t="s">
@@ -296,6 +402,24 @@
       <c r="I6" s="2" t="n">
         <v>29434</v>
       </c>
+      <c r="J6" s="2" t="n">
+        <v>29434</v>
+      </c>
+      <c r="K6" s="2" t="n">
+        <v>29434</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>29434</v>
+      </c>
+      <c r="M6" s="2" t="n">
+        <v>29434</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>29434</v>
+      </c>
+      <c r="O6" s="2" t="n">
+        <v>29434</v>
+      </c>
     </row>
     <row r="7" spans="7:7">
       <c r="A7" s="1" t="s">
@@ -325,6 +449,24 @@
       <c r="I7" s="2" t="n">
         <v>269528</v>
       </c>
+      <c r="J7" s="2" t="n">
+        <v>269528</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>269528</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>269528</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>269528</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>269528</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>269528</v>
+      </c>
     </row>
     <row r="9" spans="9:9">
       <c r="A9" s="1" t="s">
@@ -354,6 +496,24 @@
       <c r="I9" s="4">
         <v>42923.735375717595</v>
       </c>
+      <c r="J9" s="4">
+        <v>42923.764533761576</v>
+      </c>
+      <c r="K9" s="4">
+        <v>42923.76460434028</v>
+      </c>
+      <c r="L9" s="4">
+        <v>42923.76464243056</v>
+      </c>
+      <c r="M9" s="4">
+        <v>42923.7646625</v>
+      </c>
+      <c r="N9" s="4">
+        <v>42923.76468359954</v>
+      </c>
+      <c r="O9" s="4">
+        <v>42923.76477804398</v>
+      </c>
     </row>
     <row r="10" spans="10:10">
       <c r="A10" s="1" t="s">
@@ -383,6 +543,24 @@
       <c r="I10" s="2" t="n">
         <v>1714032</v>
       </c>
+      <c r="J10" s="2" t="n">
+        <v>1714032</v>
+      </c>
+      <c r="K10" s="2" t="n">
+        <v>1714032</v>
+      </c>
+      <c r="L10" s="2" t="n">
+        <v>1714032</v>
+      </c>
+      <c r="M10" s="2" t="n">
+        <v>1714032</v>
+      </c>
+      <c r="N10" s="2" t="n">
+        <v>1714032</v>
+      </c>
+      <c r="O10" s="2" t="n">
+        <v>1714032</v>
+      </c>
     </row>
     <row r="11" spans="11:11">
       <c r="A11" s="1" t="s">
@@ -412,6 +590,24 @@
       <c r="I11" s="2" t="n">
         <v>347216</v>
       </c>
+      <c r="J11" s="2" t="n">
+        <v>347212</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>347212</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>347212</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>347212</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>347212</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>347212</v>
+      </c>
     </row>
     <row r="12" spans="12:12">
       <c r="A12" s="1" t="s">
@@ -441,6 +637,24 @@
       <c r="I12" s="2" t="n">
         <v>35044708</v>
       </c>
+      <c r="J12" s="2" t="n">
+        <v>35062880</v>
+      </c>
+      <c r="K12" s="2" t="n">
+        <v>35062880</v>
+      </c>
+      <c r="L12" s="2" t="n">
+        <v>35062880</v>
+      </c>
+      <c r="M12" s="2" t="n">
+        <v>35062880</v>
+      </c>
+      <c r="N12" s="2" t="n">
+        <v>35062880</v>
+      </c>
+      <c r="O12" s="2" t="n">
+        <v>35062880</v>
+      </c>
     </row>
     <row r="13" spans="13:13">
       <c r="A13" s="1" t="s">
@@ -470,6 +684,24 @@
       <c r="I13" s="2" t="n">
         <v>86562956</v>
       </c>
+      <c r="J13" s="2" t="n">
+        <v>86551344</v>
+      </c>
+      <c r="K13" s="2" t="n">
+        <v>86551340</v>
+      </c>
+      <c r="L13" s="2" t="n">
+        <v>86551340</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>86551340</v>
+      </c>
+      <c r="N13" s="2" t="n">
+        <v>86551340</v>
+      </c>
+      <c r="O13" s="2" t="n">
+        <v>86551332</v>
+      </c>
     </row>
     <row r="14" spans="14:14">
       <c r="A14" s="1" t="s">
@@ -499,6 +731,24 @@
       <c r="I14" s="2" t="n">
         <v>68870</v>
       </c>
+      <c r="J14" s="2" t="n">
+        <v>68870</v>
+      </c>
+      <c r="K14" s="2" t="n">
+        <v>68870</v>
+      </c>
+      <c r="L14" s="2" t="n">
+        <v>68870</v>
+      </c>
+      <c r="M14" s="2" t="n">
+        <v>68870</v>
+      </c>
+      <c r="N14" s="2" t="n">
+        <v>68870</v>
+      </c>
+      <c r="O14" s="2" t="n">
+        <v>68870</v>
+      </c>
     </row>
     <row r="15" spans="15:15">
       <c r="A15" s="1" t="s">
@@ -526,6 +776,24 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -537,7 +805,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -571,6 +839,24 @@
       <c r="I1" s="4">
         <v>42923.735375717595</v>
       </c>
+      <c r="J1" s="4">
+        <v>42923.764533761576</v>
+      </c>
+      <c r="K1" s="4">
+        <v>42923.76460434028</v>
+      </c>
+      <c r="L1" s="4">
+        <v>42923.76464243056</v>
+      </c>
+      <c r="M1" s="4">
+        <v>42923.7646625</v>
+      </c>
+      <c r="N1" s="4">
+        <v>42923.76468359954</v>
+      </c>
+      <c r="O1" s="4">
+        <v>42923.76477804398</v>
+      </c>
     </row>
     <row r="2" spans="2:2">
       <c r="A2" s="1" t="s">
@@ -599,6 +885,24 @@
       </c>
       <c r="I2" s="5" t="n">
         <v>0.8797862344373972</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>0.9363516607018659</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0.930107043992133</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>0.9333036244800951</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>0.9415806491729884</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>0.9336732578866642</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>0.9396438161828039</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +913,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -643,13 +947,31 @@
       <c r="I1" s="4">
         <v>42923.735375717595</v>
       </c>
+      <c r="J1" s="4">
+        <v>42923.764533761576</v>
+      </c>
+      <c r="K1" s="4">
+        <v>42923.76460434028</v>
+      </c>
+      <c r="L1" s="4">
+        <v>42923.76464243056</v>
+      </c>
+      <c r="M1" s="4">
+        <v>42923.7646625</v>
+      </c>
+      <c r="N1" s="4">
+        <v>42923.76468359954</v>
+      </c>
+      <c r="O1" s="4">
+        <v>42923.76477804398</v>
+      </c>
     </row>
     <row r="2" spans="2:2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="5" t="n">
         <v>0.18538324420677363</v>
@@ -671,6 +993,414 @@
       </c>
       <c r="I2" s="5" t="n">
         <v>0.07543859649122807</v>
+      </c>
+      <c r="J2" s="5" t="n">
+        <v>0.13374736129946027</v>
+      </c>
+      <c r="K2" s="5" t="n">
+        <v>0.3756593820648078</v>
+      </c>
+      <c r="L2" s="5" t="n">
+        <v>0.22350230414746544</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>0.22108345534407028</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>0.18549511854951187</v>
+      </c>
+      <c r="O2" s="5" t="n">
+        <v>0.18260333127698952</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr/>
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4">
+        <v>42923.73510010417</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42923.73511646991</v>
+      </c>
+      <c r="D1" s="4">
+        <v>42923.73513475694</v>
+      </c>
+      <c r="E1" s="4">
+        <v>42923.735159421296</v>
+      </c>
+      <c r="F1" s="4">
+        <v>42923.73517662037</v>
+      </c>
+      <c r="G1" s="4">
+        <v>42923.73521302083</v>
+      </c>
+      <c r="H1" s="4">
+        <v>42923.7352443287</v>
+      </c>
+      <c r="I1" s="4">
+        <v>42923.735375717595</v>
+      </c>
+      <c r="J1" s="4">
+        <v>42923.764533761576</v>
+      </c>
+      <c r="K1" s="4">
+        <v>42923.76460434028</v>
+      </c>
+      <c r="L1" s="4">
+        <v>42923.76464243056</v>
+      </c>
+      <c r="M1" s="4">
+        <v>42923.7646625</v>
+      </c>
+      <c r="N1" s="4">
+        <v>42923.76468359954</v>
+      </c>
+      <c r="O1" s="4">
+        <v>42923.76477804398</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>33310</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:4">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5729</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>4723</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>4782</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>4580</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>4535</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>4811</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>7240</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>6260854</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>5581</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>5415</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>5360</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>4749</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
+        <v>42923.73510010417</v>
+      </c>
+      <c r="C6" s="4">
+        <v>42923.73511646991</v>
+      </c>
+      <c r="D6" s="4">
+        <v>42923.73513475694</v>
+      </c>
+      <c r="E6" s="4">
+        <v>42923.735159421296</v>
+      </c>
+      <c r="F6" s="4">
+        <v>42923.73517662037</v>
+      </c>
+      <c r="G6" s="4">
+        <v>42923.73521302083</v>
+      </c>
+      <c r="H6" s="4">
+        <v>42923.7352443287</v>
+      </c>
+      <c r="I6" s="4">
+        <v>42923.735375717595</v>
+      </c>
+      <c r="J6" s="4">
+        <v>42923.764533761576</v>
+      </c>
+      <c r="K6" s="4">
+        <v>42923.76460434028</v>
+      </c>
+      <c r="L6" s="4">
+        <v>42923.76464243056</v>
+      </c>
+      <c r="M6" s="4">
+        <v>42923.7646625</v>
+      </c>
+      <c r="N6" s="4">
+        <v>42923.76468359954</v>
+      </c>
+      <c r="O6" s="4">
+        <v>42923.76477804398</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="8:8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>33310</v>
+      </c>
+      <c r="K8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="9:9">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>4773</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>4393</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>4547</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>4393</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>4463</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>4773</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>4689</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>1686016</v>
+      </c>
+      <c r="K9" s="2" t="n">
+        <v>4716</v>
+      </c>
+      <c r="L9" s="2" t="n">
+        <v>4835</v>
+      </c>
+      <c r="M9" s="2" t="n">
+        <v>4394</v>
+      </c>
+      <c r="N9" s="2" t="n">
+        <v>4514</v>
+      </c>
+      <c r="O9" s="2" t="n">
+        <v>5689</v>
       </c>
     </row>
   </sheetData>
